--- a/results/Charts.xlsx
+++ b/results/Charts.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xuan\Documents\GitHub\LLM-Vulnerable-Malicious-Prompts\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68FC2D-6B92-448C-8BBE-A49503765E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1174302-14CB-451E-81D9-C5AEF8C60CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9E9B9431-1FB5-4C09-8C30-3C413850B47E}"/>
+    <workbookView xWindow="1155" yWindow="45" windowWidth="32925" windowHeight="20835" xr2:uid="{9E9B9431-1FB5-4C09-8C30-3C413850B47E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Charts" sheetId="2" r:id="rId1"/>
+    <sheet name="Charts (Updated)" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -169,7 +169,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Total Model Safe/Unsafe Code Generation</a:t>
             </a:r>
           </a:p>
@@ -216,7 +223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$52</c:f>
+              <c:f>'Charts (Updated)'!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -237,36 +244,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$51:$C$51</c:f>
+              <c:f>'Charts (Updated)'!$B$60:$D$60</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Starcoder</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Codellama</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeekCoder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$52:$C$52</c:f>
+              <c:f>'Charts (Updated)'!$B$61:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E57D-4A7C-8C79-6C4C4896258C}"/>
+              <c16:uniqueId val="{00000000-F5F4-42C7-A8F5-B9D7D2A4F764}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -275,7 +288,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$53</c:f>
+              <c:f>'Charts (Updated)'!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -296,36 +309,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$51:$C$51</c:f>
+              <c:f>'Charts (Updated)'!$B$60:$D$60</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Starcoder</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Codellama</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeekCoder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$53:$C$53</c:f>
+              <c:f>'Charts (Updated)'!$B$62:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E57D-4A7C-8C79-6C4C4896258C}"/>
+              <c16:uniqueId val="{00000001-F5F4-42C7-A8F5-B9D7D2A4F764}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -339,11 +358,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="641218128"/>
-        <c:axId val="641215728"/>
+        <c:axId val="1711698416"/>
+        <c:axId val="1711698896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641218128"/>
+        <c:axId val="1711698416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641215728"/>
+        <c:crossAx val="1711698896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -394,7 +413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="641215728"/>
+        <c:axId val="1711698896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641218128"/>
+        <c:crossAx val="1711698416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -566,12 +585,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Model</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> reliability</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Model reliability</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -617,7 +639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$56</c:f>
+              <c:f>'Charts (Updated)'!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -638,36 +660,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$55:$C$55</c:f>
+              <c:f>'Charts (Updated)'!$B$64:$D$64</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Starcoder</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Codellama</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeekCoder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$56:$C$56</c:f>
+              <c:f>'Charts (Updated)'!$B$65:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9361-4060-901F-DCFBCFD97943}"/>
+              <c16:uniqueId val="{00000000-F535-4FD0-BE9E-4F88A70323D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -676,7 +704,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$57</c:f>
+              <c:f>'Charts (Updated)'!$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,36 +725,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$55:$C$55</c:f>
+              <c:f>'Charts (Updated)'!$B$64:$D$64</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Starcoder</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Codellama</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DeepSeekCoder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$57:$C$57</c:f>
+              <c:f>'Charts (Updated)'!$B$66:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9361-4060-901F-DCFBCFD97943}"/>
+              <c16:uniqueId val="{00000001-F535-4FD0-BE9E-4F88A70323D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -740,11 +774,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="640734576"/>
-        <c:axId val="640731696"/>
+        <c:axId val="1598552048"/>
+        <c:axId val="1598548688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="640734576"/>
+        <c:axId val="1598552048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640731696"/>
+        <c:crossAx val="1598548688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -795,7 +829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640731696"/>
+        <c:axId val="1598548688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640734576"/>
+        <c:crossAx val="1598552048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -967,14 +1001,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Programming</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Starcoder Safe/Unsafe Code Generation by Language</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> languages used in prompts</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1010,94 +1046,37 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-616F-4B54-A521-413D42469355}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-616F-4B54-A521-413D42469355}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-616F-4B54-A521-413D42469355}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-616F-4B54-A521-413D42469355}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts (Updated)'!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unsafe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$59:$E$59</c:f>
+              <c:f>'Charts (Updated)'!$B$70:$E$71</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1117,28 +1096,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$60:$E$60</c:f>
+              <c:f>'Charts (Updated)'!$B$72:$E$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-616F-4B54-A521-413D42469355}"/>
+              <c16:uniqueId val="{00000000-7BDA-4A59-9945-10D99E0B1FF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts (Updated)'!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Safe/Unusable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Charts (Updated)'!$B$70:$E$71</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Charts (Updated)'!$B$73:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BDA-4A59-9945-10D99E0B1FF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1149,10 +1199,119 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1443724960"/>
+        <c:axId val="1443727360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1443724960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443727360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1443727360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443724960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1270,14 +1429,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Starcoder</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CodeLlama Safe/Unsafe Code Generation by Language</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Safe/Unsafe Code Generation by Language</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1322,7 +1483,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$63</c:f>
+              <c:f>'Charts (Updated)'!$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1343,7 +1504,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$62:$E$62</c:f>
+              <c:f>'Charts (Updated)'!$B$74:$E$75</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1363,28 +1524,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$63:$E$63</c:f>
+              <c:f>'Charts (Updated)'!$B$76:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BDB-4009-99B4-52BAE6E59605}"/>
+              <c16:uniqueId val="{00000000-E0BB-4A81-9CF6-7759011FD995}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,7 +1554,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$64</c:f>
+              <c:f>'Charts (Updated)'!$A$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,7 +1575,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$62:$E$62</c:f>
+              <c:f>'Charts (Updated)'!$B$74:$E$75</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1434,28 +1595,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$64:$E$64</c:f>
+              <c:f>'Charts (Updated)'!$B$77:$E$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0BDB-4009-99B4-52BAE6E59605}"/>
+              <c16:uniqueId val="{00000001-E0BB-4A81-9CF6-7759011FD995}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1469,11 +1630,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="652699872"/>
-        <c:axId val="652696512"/>
+        <c:axId val="1448648832"/>
+        <c:axId val="1582711024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="652699872"/>
+        <c:axId val="1448648832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652696512"/>
+        <c:crossAx val="1582711024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1524,7 +1685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652696512"/>
+        <c:axId val="1582711024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,835 +1736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652699872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CodeLlama</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Safe/Unsafe Code Generation by Language</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$A$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unsafe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Java</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$B$67:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60AE-402E-A49A-45B12F218EA2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Safe/Unusable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Java</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$B$68:$E$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60AE-402E-A49A-45B12F218EA2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="644820864"/>
-        <c:axId val="644823264"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="644820864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="644823264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="644823264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="644820864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Total Model Safe/Unsafe Code Generation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Success</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$B$51:$D$51</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Starcoder</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Codellama</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DeepSeekCoder</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$B$52:$D$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3760-4035-8345-5DF50F790B9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fail</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$B$51:$D$51</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Starcoder</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Codellama</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DeepSeekCoder</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$B$53:$D$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3760-4035-8345-5DF50F790B9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="341117071"/>
-        <c:axId val="1448178607"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="341117071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1448178607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1448178607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341117071"/>
+        <c:crossAx val="1448648832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2490,7 +1823,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2532,7 +1865,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Model reliability</a:t>
+              <a:t>DeepSeekCoder Safe/Unsafe Code Generation by Language</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2578,11 +1911,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$56</c:f>
+              <c:f>'Charts (Updated)'!$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Functional code</c:v>
+                  <c:v>Unsafe</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2599,42 +1932,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$55:$D$55</c:f>
+              <c:f>'Charts (Updated)'!$B$79:$E$80</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Starcoder</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Codellama</c:v>
+                  <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DeepSeekCoder</c:v>
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$56:$D$56</c:f>
+              <c:f>'Charts (Updated)'!$B$81:$E$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F29C-4B5E-83E6-44BD548EA079}"/>
+              <c16:uniqueId val="{00000000-D75F-4D07-A195-EFB74ABFA03F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2643,11 +1982,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$A$57</c:f>
+              <c:f>'Charts (Updated)'!$A$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nonfunctional code</c:v>
+                  <c:v>Safe/Unusable</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2664,42 +2003,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$55:$D$55</c:f>
+              <c:f>'Charts (Updated)'!$B$79:$E$80</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Starcoder</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Codellama</c:v>
+                  <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DeepSeekCoder</c:v>
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$57:$D$57</c:f>
+              <c:f>'Charts (Updated)'!$B$82:$E$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F29C-4B5E-83E6-44BD548EA079}"/>
+              <c16:uniqueId val="{00000001-D75F-4D07-A195-EFB74ABFA03F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2713,11 +2058,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1667415871"/>
-        <c:axId val="1667418271"/>
+        <c:axId val="1481196640"/>
+        <c:axId val="1675710176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1667415871"/>
+        <c:axId val="1481196640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667418271"/>
+        <c:crossAx val="1675710176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2768,7 +2113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1667418271"/>
+        <c:axId val="1675710176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1667415871"/>
+        <c:crossAx val="1481196640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2906,7 +2251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2941,13 +2286,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DeepSeekCoder</a:t>
+              <a:t>Programming languages used in prompts</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Safe/Unsafe Code Generation by Language</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2983,37 +2323,94 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$A$72</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unsafe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-845F-4E79-9820-55DC6B30BCB3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-845F-4E79-9820-55DC6B30BCB3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-845F-4E79-9820-55DC6B30BCB3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-845F-4E79-9820-55DC6B30BCB3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$B$71:$E$71</c:f>
+              <c:f>'Charts (Updated)'!$B$68:$E$68</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3033,99 +2430,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$72:$E$72</c:f>
+              <c:f>'Charts (Updated)'!$B$69:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D5EB-4E9D-A236-1329167C6E43}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$A$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Safe/Unusable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$B$71:$E$71</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Java</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$B$73:$E$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D5EB-4E9D-A236-1329167C6E43}"/>
+              <c16:uniqueId val="{00000008-845F-4E79-9820-55DC6B30BCB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3136,119 +2462,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="116592015"/>
-        <c:axId val="116588655"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="116592015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="116588655"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="116588655"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="116592015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3572,86 +2789,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4659,7 +3796,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4716,7 +3853,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4767,13 +3904,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4784,19 +3914,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4834,7 +3957,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4877,23 +4000,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4998,8 +4120,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5131,20 +4253,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6184,7 +5305,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6241,7 +5362,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6292,6 +5413,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6302,12 +5430,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6345,7 +5480,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6388,22 +5523,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6508,8 +5644,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6641,1025 +5777,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7697,28 +5828,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6771C2-BB5C-4D25-B91A-5B7E53E9C6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4EF263-47DF-FE63-A927-73777DE86F4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7735,28 +5864,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F488466-DC3C-4E05-A790-F4A45D70BF98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81CB0AE-E2DA-7008-1B39-50F1A234B71B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7772,29 +5899,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F1120D-9045-4238-A6EE-9847D260D6C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCB0EE1-C281-F232-DCE4-61D03C91C89D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7811,28 +5936,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECB0136-7F34-451F-AA8E-C86EE04FA4FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DA6503-8C25-6462-9961-B4B5C8AA2F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7849,28 +5972,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CDED79-E897-4DAE-9588-C4B6F9B627EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019D503D-546D-AF97-3332-43BC0A751E74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7886,23 +6007,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813A2604-5EC9-4E3F-9F98-3D8640DB40C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92C8D09-278E-475C-93AF-F833BF851CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7917,82 +6038,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C22CA4-AF30-452F-97E3-9AC7F8F86BEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195869BA-879B-4095-88FD-BD8907AE8ACE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8317,271 +6362,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81051D99-277E-4D0C-B747-115BD7BEAB55}">
-  <dimension ref="A51:E75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C223D5E-0D5D-401A-9CD9-551793F3BA78}">
+  <dimension ref="A60:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="1">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1">
-        <v>16</v>
-      </c>
-      <c r="D52" s="1">
-        <v>15</v>
-      </c>
-      <c r="E52" s="1"/>
+      <c r="B61" s="1">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="1">
-        <v>18</v>
-      </c>
-      <c r="C53" s="1">
-        <v>18</v>
-      </c>
-      <c r="D53" s="1">
-        <v>19</v>
-      </c>
-      <c r="E53" s="1"/>
+      <c r="B62" s="1">
+        <v>21</v>
+      </c>
+      <c r="C62" s="1">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="1">
-        <v>29</v>
-      </c>
-      <c r="C56" s="1">
-        <v>27</v>
-      </c>
-      <c r="D56" s="1">
-        <v>27</v>
-      </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="1">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1">
-        <v>7</v>
-      </c>
-      <c r="D57" s="1">
-        <v>7</v>
-      </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1">
-        <v>13</v>
-      </c>
-      <c r="C60" s="1">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1">
-        <v>10</v>
-      </c>
-      <c r="E60" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="1">
-        <v>9</v>
-      </c>
-      <c r="C63" s="1">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1">
-        <v>4</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1">
+        <v>31</v>
+      </c>
+      <c r="D65" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="1">
-        <v>10</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="1">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1">
-        <v>8</v>
-      </c>
-      <c r="E68" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="B69" s="1">
+        <v>13</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8608,16 +6510,16 @@
         <v>10</v>
       </c>
       <c r="B72" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8625,30 +6527,153 @@
         <v>12</v>
       </c>
       <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
         <v>5</v>
-      </c>
-      <c r="C73" s="1">
-        <v>4</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>
       </c>
       <c r="E73" s="1">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C75">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1">
         <v>8</v>
       </c>
-      <c r="D75">
+      <c r="C81" s="1">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>13</v>
+      </c>
+      <c r="C85">
         <v>10</v>
       </c>
-      <c r="E75">
-        <v>3</v>
+      <c r="D85">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
